--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,559 +52,541 @@
     <t>defective</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>comes</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>size</t>
   </si>
   <si>
     <t>get</t>
@@ -971,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,10 +961,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1040,37 +1022,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1082,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1111,16 +1093,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1161,16 +1143,16 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1182,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1211,16 +1193,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.90625</v>
+        <v>0.8854489164086687</v>
       </c>
       <c r="L6">
-        <v>116</v>
+        <v>572</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>572</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1232,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1240,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5038759689922481</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1258,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1282,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1290,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4905660377358491</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1308,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8622291021671826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="M8">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1332,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1340,13 +1322,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4545454545454545</v>
+        <v>0.48</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1358,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.85</v>
@@ -1390,13 +1372,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.44</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1408,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8260869565217391</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1432,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1440,37 +1422,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3506493506493507</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L11">
         <v>38</v>
       </c>
-      <c r="K11">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="L11">
-        <v>21</v>
-      </c>
       <c r="M11">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1482,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1490,13 +1472,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3382352941176471</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1508,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.7894736842105263</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1532,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1561,16 +1543,16 @@
         <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.7619047619047619</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L13">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1582,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1590,13 +1572,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1608,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7333333333333333</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1632,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1640,13 +1622,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2216216216216216</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1658,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1682,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1690,37 +1672,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2156862745098039</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7254237288135593</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L16">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1732,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1740,13 +1722,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1769911504424779</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1758,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1782,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1790,37 +1772,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.145631067961165</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1832,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1840,37 +1822,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.134020618556701</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F19">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.703125</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1882,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1890,187 +1872,115 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1156462585034014</v>
+        <v>0.02773925104022192</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E20">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
       <c r="F20">
-        <v>0.9399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>701</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L20">
+        <v>27</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>0.6819277108433734</v>
+      </c>
+      <c r="L21">
+        <v>849</v>
+      </c>
+      <c r="M21">
+        <v>850</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="L22">
+        <v>48</v>
+      </c>
+      <c r="M22">
+        <v>48</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K20">
-        <v>0.6886035313001605</v>
-      </c>
-      <c r="L20">
-        <v>858</v>
-      </c>
-      <c r="M20">
-        <v>858</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.05475504322766571</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>43</v>
-      </c>
-      <c r="E21">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>328</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="K23">
+        <v>0.6575342465753424</v>
+      </c>
+      <c r="L23">
         <v>48</v>
       </c>
-      <c r="K21">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
-      <c r="M21">
-        <v>44</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.02613480055020633</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>59</v>
-      </c>
-      <c r="E22">
-        <v>0.68</v>
-      </c>
-      <c r="F22">
-        <v>0.32</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>708</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.6590909090909091</v>
-      </c>
-      <c r="L22">
-        <v>29</v>
-      </c>
-      <c r="M22">
-        <v>29</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.01529636711281071</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0.87</v>
-      </c>
-      <c r="F23">
-        <v>0.13</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1030</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
       <c r="M23">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2082,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6521739130434783</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2108,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.647887323943662</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2134,12 +2044,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>0.6447368421052632</v>
@@ -2165,16 +2075,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.6438356164383562</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2186,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.6410256410256411</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2212,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.640625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2238,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2264,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.6323529411764706</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2290,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.6307692307692307</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2316,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L33">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2342,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6142857142857143</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2368,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.6140350877192983</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2394,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.6031746031746031</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2420,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.6024096385542169</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,21 +2356,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2472,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5901639344262295</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2498,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.5882352941176471</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2524,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.5694444444444444</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2550,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.5625</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2576,21 +2486,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.5609756097560976</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2607,10 +2517,10 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L44">
         <v>16</v>
@@ -2628,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.5470085470085471</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2654,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.5454545454545454</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2680,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.5449101796407185</v>
+        <v>0.525</v>
       </c>
       <c r="L47">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2706,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.5432098765432098</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2732,21 +2642,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K49">
-        <v>0.5333333333333333</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2758,21 +2668,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="L50">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2784,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.5277777777777778</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2810,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>0.5128205128205128</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2836,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.4939759036144578</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M53">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2862,38 +2772,38 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.4857142857142857</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>17</v>
-      </c>
-      <c r="M54">
-        <v>17</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K55">
         <v>0.4838709677419355</v>
@@ -2919,16 +2829,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K56">
-        <v>0.481203007518797</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L56">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2940,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K57">
-        <v>0.4736842105263158</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2966,21 +2876,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K58">
-        <v>0.4565217391304348</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2992,21 +2902,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K59">
-        <v>0.4489795918367347</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3018,73 +2928,73 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K60">
-        <v>0.4342105263157895</v>
+        <v>0.45</v>
       </c>
       <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>27</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>33</v>
-      </c>
-      <c r="M60">
-        <v>33</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>43</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K61">
-        <v>0.4313725490196079</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="L61">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M61">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>232</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K62">
-        <v>0.4285714285714285</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3096,21 +3006,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K63">
-        <v>0.4181818181818182</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L63">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3122,21 +3032,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K64">
-        <v>0.4178082191780822</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="L64">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3148,21 +3058,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>425</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K65">
-        <v>0.4166666666666667</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3174,47 +3084,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K66">
-        <v>0.4144144144144144</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="L66">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="M66">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>65</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K67">
-        <v>0.4130434782608696</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3226,21 +3136,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K68">
-        <v>0.4126984126984127</v>
+        <v>0.4178082191780822</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3252,21 +3162,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>37</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K69">
-        <v>0.4042553191489361</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3278,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K70">
-        <v>0.4007782101167315</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L70">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="M70">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3304,21 +3214,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K71">
-        <v>0.3981481481481481</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L71">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="M71">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3330,21 +3240,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K72">
-        <v>0.3970588235294117</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L72">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3356,21 +3266,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K73">
-        <v>0.3953488372093023</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3382,21 +3292,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K74">
-        <v>0.3884892086330936</v>
+        <v>0.3841059602649007</v>
       </c>
       <c r="L74">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M74">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3408,21 +3318,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K75">
-        <v>0.3809523809523809</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L75">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3434,21 +3344,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K76">
-        <v>0.3732057416267943</v>
+        <v>0.381294964028777</v>
       </c>
       <c r="L76">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="M76">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3460,47 +3370,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K77">
-        <v>0.3708609271523179</v>
+        <v>0.3798076923076923</v>
       </c>
       <c r="L77">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M77">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K78">
-        <v>0.359375</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3512,21 +3422,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K79">
-        <v>0.359375</v>
+        <v>0.3716814159292036</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3538,21 +3448,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K80">
-        <v>0.3529411764705883</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3564,21 +3474,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K81">
-        <v>0.3472222222222222</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L81">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3590,21 +3500,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K82">
-        <v>0.3458646616541353</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L82">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3616,21 +3526,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K83">
-        <v>0.3452380952380952</v>
+        <v>0.3207750269106566</v>
       </c>
       <c r="L83">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="M83">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3642,21 +3552,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>55</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K84">
-        <v>0.3372844827586207</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L84">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="M84">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3665,24 +3575,24 @@
         <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>615</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K85">
-        <v>0.3333333333333333</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3694,21 +3604,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K86">
-        <v>0.3267326732673267</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L86">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M86">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3720,99 +3630,99 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K87">
-        <v>0.3153153153153153</v>
+        <v>0.3059602649006622</v>
       </c>
       <c r="L87">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="M87">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>76</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K88">
-        <v>0.3153153153153153</v>
+        <v>0.3059125964010283</v>
       </c>
       <c r="L88">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="M88">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>76</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K89">
-        <v>0.308974358974359</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L89">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="N89">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>539</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K90">
-        <v>0.2980132450331126</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L90">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="M90">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3824,21 +3734,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>530</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K91">
-        <v>0.2769230769230769</v>
+        <v>0.29</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3850,21 +3760,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K92">
-        <v>0.2727272727272727</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L92">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3876,99 +3786,99 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K93">
-        <v>0.2727272727272727</v>
+        <v>0.28125</v>
       </c>
       <c r="L93">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N93">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K94">
-        <v>0.2711864406779661</v>
+        <v>0.277027027027027</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K95">
-        <v>0.2666666666666667</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L95">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K96">
-        <v>0.2615384615384616</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3980,21 +3890,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K97">
-        <v>0.2588235294117647</v>
+        <v>0.265625</v>
       </c>
       <c r="L97">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M97">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -4006,73 +3916,73 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K98">
-        <v>0.2550335570469799</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="L98">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="M98">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>111</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K99">
-        <v>0.2547169811320755</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="L99">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="M99">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N99">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>237</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K100">
-        <v>0.2530120481927711</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L100">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -4084,47 +3994,47 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K101">
         <v>0.25</v>
       </c>
       <c r="L101">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K102">
-        <v>0.25</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L102">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="M102">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -4136,73 +4046,73 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>69</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K103">
-        <v>0.25</v>
+        <v>0.2437810945273632</v>
       </c>
       <c r="L103">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M103">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K104">
-        <v>0.2476190476190476</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M104">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K105">
-        <v>0.2467532467532468</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -4214,41 +4124,41 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K106">
-        <v>0.2461538461538462</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L106">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="M106">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="N106">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>343</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K107">
-        <v>0.2441860465116279</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L107">
         <v>21</v>
@@ -4266,47 +4176,47 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K108">
-        <v>0.2404371584699453</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="L108">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="M108">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>278</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K109">
-        <v>0.2393162393162393</v>
+        <v>0.2243436754176611</v>
       </c>
       <c r="L109">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M109">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4318,21 +4228,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>89</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K110">
-        <v>0.2384615384615385</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L110">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M110">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4344,47 +4254,47 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K111">
-        <v>0.2295081967213115</v>
+        <v>0.2216216216216216</v>
       </c>
       <c r="L111">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="M111">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>94</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K112">
-        <v>0.2293577981651376</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="L112">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4396,21 +4306,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K113">
-        <v>0.2250922509225092</v>
+        <v>0.2177121771217712</v>
       </c>
       <c r="L113">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M113">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4422,73 +4332,73 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K114">
-        <v>0.2207792207792208</v>
+        <v>0.2161016949152542</v>
       </c>
       <c r="L114">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M114">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>60</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K115">
-        <v>0.2191780821917808</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="L115">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N115">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K116">
-        <v>0.2159090909090909</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L116">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M116">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4500,21 +4410,21 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K117">
-        <v>0.2134146341463415</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="L117">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M117">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4526,47 +4436,47 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K118">
-        <v>0.21</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L118">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M118">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N118">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K119">
-        <v>0.2048192771084337</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="L119">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M119">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4578,47 +4488,47 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K120">
-        <v>0.202020202020202</v>
+        <v>0.2050113895216401</v>
       </c>
       <c r="L120">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M120">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>79</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K121">
-        <v>0.1974789915966386</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="L121">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M121">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4630,125 +4540,125 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>191</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K122">
-        <v>0.1958997722095672</v>
+        <v>0.2004889975550122</v>
       </c>
       <c r="L122">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M122">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N122">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O122">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K123">
-        <v>0.1937984496124031</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="L123">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M123">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K124">
-        <v>0.1923076923076923</v>
+        <v>0.1868512110726644</v>
       </c>
       <c r="L124">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M124">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <v>84</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K125">
-        <v>0.192090395480226</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="L125">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M125">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K126">
-        <v>0.1904761904761905</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L126">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M126">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4760,99 +4670,99 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K127">
-        <v>0.1890243902439024</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="L127">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M127">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N127">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O127">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K128">
-        <v>0.1885441527446301</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="L128">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="M128">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
-        <v>340</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K129">
-        <v>0.1855670103092784</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="L129">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M129">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
-        <v>237</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K130">
-        <v>0.1827956989247312</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L130">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M130">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -4864,99 +4774,99 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K131">
-        <v>0.1804878048780488</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L131">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M131">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N131">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>336</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K132">
-        <v>0.1801242236024845</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="L132">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M132">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N132">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O132">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K133">
-        <v>0.1791044776119403</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="L133">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M133">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N133">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O133">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>220</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K134">
-        <v>0.1755725190839695</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L134">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M134">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -4968,21 +4878,21 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K135">
-        <v>0.1699346405228758</v>
+        <v>0.1510989010989011</v>
       </c>
       <c r="L135">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M135">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N135">
         <v>0.96</v>
@@ -4994,41 +4904,41 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>127</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K136">
-        <v>0.1684210526315789</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="L136">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M136">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K137">
-        <v>0.1645569620253164</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L137">
         <v>26</v>
@@ -5046,73 +4956,73 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K138">
-        <v>0.1548387096774194</v>
+        <v>0.1403762662807525</v>
       </c>
       <c r="L138">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M138">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="N138">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O138">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>131</v>
+        <v>594</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K139">
-        <v>0.1538461538461539</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L139">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M139">
         <v>23</v>
       </c>
       <c r="N139">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O139">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K140">
-        <v>0.1509433962264151</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -5124,21 +5034,21 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K141">
-        <v>0.1504424778761062</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="L141">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M141">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -5150,73 +5060,73 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K142">
-        <v>0.1478260869565217</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="L142">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M142">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N142">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O142">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q142">
-        <v>98</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K143">
-        <v>0.1420765027322404</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="L143">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M143">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143">
-        <v>314</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K144">
-        <v>0.1411290322580645</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="L144">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M144">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -5228,21 +5138,21 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K145">
-        <v>0.1372549019607843</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L145">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M145">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -5254,761 +5164,631 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K146">
-        <v>0.131578947368421</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L146">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M146">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N146">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K147">
-        <v>0.1293103448275862</v>
+        <v>0.1172607879924953</v>
       </c>
       <c r="L147">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M147">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="N147">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O147">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>606</v>
+        <v>941</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K148">
+        <v>0.1161616161616162</v>
+      </c>
+      <c r="L148">
+        <v>23</v>
+      </c>
+      <c r="M148">
+        <v>23</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
         <v>175</v>
-      </c>
-      <c r="K148">
-        <v>0.1292134831460674</v>
-      </c>
-      <c r="L148">
-        <v>138</v>
-      </c>
-      <c r="M148">
-        <v>142</v>
-      </c>
-      <c r="N148">
-        <v>0.97</v>
-      </c>
-      <c r="O148">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P148" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q148">
-        <v>930</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K149">
-        <v>0.1286764705882353</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="L149">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M149">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O149">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q149">
-        <v>237</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K150">
-        <v>0.1275167785234899</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="L150">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M150">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q150">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K151">
-        <v>0.1224489795918367</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L151">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M151">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N151">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O151">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>129</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K152">
-        <v>0.1223021582733813</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L152">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M152">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N152">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O152">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>122</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K153">
-        <v>0.1213872832369942</v>
+        <v>0.1129707112970711</v>
       </c>
       <c r="L153">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M153">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N153">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O153">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q153">
-        <v>152</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K154">
-        <v>0.1206896551724138</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="L154">
         <v>21</v>
       </c>
       <c r="M154">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q154">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K155">
-        <v>0.1129707112970711</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L155">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M155">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O155">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q155">
-        <v>212</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K156">
-        <v>0.1119592875318066</v>
+        <v>0.1028770706190061</v>
       </c>
       <c r="L156">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M156">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="N156">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O156">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>349</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K157">
-        <v>0.1111111111111111</v>
+        <v>0.1023166023166023</v>
       </c>
       <c r="L157">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M157">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N157">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O157">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>184</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K158">
-        <v>0.1085271317829457</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L158">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M158">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="N158">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O158">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P158" t="b">
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>460</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K159">
-        <v>0.1069182389937107</v>
+        <v>0.1002444987775061</v>
       </c>
       <c r="L159">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M159">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N159">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O159">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>142</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K160">
-        <v>0.1037037037037037</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L160">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M160">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N160">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O160">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>484</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K161">
-        <v>0.1032608695652174</v>
+        <v>0.09695290858725762</v>
       </c>
       <c r="L161">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M161">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N161">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O161">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K162">
-        <v>0.1019108280254777</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="L162">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M162">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N162">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="O162">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K163">
-        <v>0.1004901960784314</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="L163">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M163">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N163">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O163">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q163">
-        <v>367</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K164">
-        <v>0.09793814432989691</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="L164">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M164">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N164">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="O164">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>175</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="10:17">
       <c r="J165" s="1" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="K165">
-        <v>0.09728308501314636</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L165">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M165">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="N165">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O165">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P165" t="b">
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>1030</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K166">
-        <v>0.08839779005524862</v>
+        <v>0.06162464985994398</v>
       </c>
       <c r="L166">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M166">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N166">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="O166">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>165</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="10:17">
       <c r="J167" s="1" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="K167">
-        <v>0.08211143695014662</v>
+        <v>0.06157965194109773</v>
       </c>
       <c r="L167">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M167">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N167">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="O167">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="P167" t="b">
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>313</v>
+        <v>701</v>
       </c>
     </row>
     <row r="168" spans="10:17">
       <c r="J168" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K168">
-        <v>0.07988980716253444</v>
+        <v>0.03950617283950617</v>
       </c>
       <c r="L168">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M168">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N168">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="O168">
-        <v>0.06000000000000005</v>
+        <v>0.24</v>
       </c>
       <c r="P168" t="b">
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>334</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="10:17">
       <c r="J169" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K169">
-        <v>0.07216494845360824</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="L169">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M169">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N169">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="O169">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="170" spans="10:17">
-      <c r="J170" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K170">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="L170">
-        <v>24</v>
-      </c>
-      <c r="M170">
-        <v>43</v>
-      </c>
-      <c r="N170">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O170">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P170" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q170">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="171" spans="10:17">
-      <c r="J171" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K171">
-        <v>0.053475935828877</v>
-      </c>
-      <c r="L171">
-        <v>40</v>
-      </c>
-      <c r="M171">
-        <v>59</v>
-      </c>
-      <c r="N171">
-        <v>0.68</v>
-      </c>
-      <c r="O171">
-        <v>0.32</v>
-      </c>
-      <c r="P171" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q171">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="172" spans="10:17">
-      <c r="J172" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K172">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="L172">
-        <v>18</v>
-      </c>
-      <c r="M172">
-        <v>25</v>
-      </c>
-      <c r="N172">
-        <v>0.72</v>
-      </c>
-      <c r="O172">
-        <v>0.28</v>
-      </c>
-      <c r="P172" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q172">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="173" spans="10:17">
-      <c r="J173" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K173">
-        <v>0.04422604422604422</v>
-      </c>
-      <c r="L173">
-        <v>18</v>
-      </c>
-      <c r="M173">
-        <v>21</v>
-      </c>
-      <c r="N173">
-        <v>0.86</v>
-      </c>
-      <c r="O173">
-        <v>0.14</v>
-      </c>
-      <c r="P173" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q173">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="10:17">
-      <c r="J174" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K174">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="L174">
-        <v>27</v>
-      </c>
-      <c r="M174">
-        <v>33</v>
-      </c>
-      <c r="N174">
-        <v>0.82</v>
-      </c>
-      <c r="O174">
-        <v>0.18</v>
-      </c>
-      <c r="P174" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q174">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
